--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800230.3523476257</v>
+        <v>821384.0253129124</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>189902.9539564205</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>186.7358163081994</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>160.5713327074073</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498666</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.106465005442892</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>9.275596830496642</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>224.2535473990623</v>
       </c>
       <c r="X5" t="n">
-        <v>149.3055094953053</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>34.45403149117925</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>172.7538595767108</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>159.9341957629492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>205.1478855987998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>354.7522162574256</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>26.64360395382583</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773036</v>
       </c>
     </row>
     <row r="13">
@@ -1528,28 +1528,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>236.0502377560821</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>6.357987380643181</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>339.039918580681</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,25 +1889,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.7855413993646</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>48.77050068846903</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>381.9994568307996</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>155.2114886365808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>16.889865504349</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2318,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>102.2951235799359</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>115.4314953055858</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>54.47555601903409</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>60.26951970765048</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>190.2713935802968</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>113.2788623889627</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2956,22 +2956,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.791117132838708</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>89.86857700878754</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3229,16 +3229,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,16 +3269,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>192.42513265594</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -3311,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>42.94598636023064</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.5499088748941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H38" t="n">
-        <v>111.6397893914283</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3661,25 +3661,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>114.3028656524355</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>254.4950516443633</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>208.0055861732528</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,16 +3949,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>158.1532781090168</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,19 +4022,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>211.244987149371</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.74665604171</v>
+        <v>962.1597273639306</v>
       </c>
       <c r="C2" t="n">
-        <v>1525.74665604171</v>
+        <v>593.197210423519</v>
       </c>
       <c r="D2" t="n">
-        <v>1525.74665604171</v>
+        <v>593.197210423519</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278602</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017522</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y2" t="n">
-        <v>1525.74665604171</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E4" t="n">
-        <v>404.9282174162495</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9282174162495</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1241.158393318536</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>951.4629090302694</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>593.197210423519</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2470.630356271694</v>
       </c>
       <c r="X5" t="n">
-        <v>1631.297725294347</v>
+        <v>2097.164598010615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1241.158393318536</v>
+        <v>1707.025266034803</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>976.6605612216329</v>
+        <v>799.8716139843716</v>
       </c>
       <c r="C8" t="n">
-        <v>976.6605612216329</v>
+        <v>799.8716139843716</v>
       </c>
       <c r="D8" t="n">
-        <v>618.3948626148824</v>
+        <v>799.8716139843716</v>
       </c>
       <c r="E8" t="n">
-        <v>618.3948626148824</v>
+        <v>799.8716139843716</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4089578252748</v>
+        <v>799.8716139843716</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.9078058825585</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.799893197445</v>
+        <v>1190.010945960183</v>
       </c>
       <c r="Y8" t="n">
-        <v>976.6605612216329</v>
+        <v>799.8716139843716</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>808.0839286340174</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="C11" t="n">
-        <v>439.1214116936057</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>80.85571308685519</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V11" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W11" t="n">
-        <v>1958.288858935031</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X11" t="n">
-        <v>1584.823100673951</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y11" t="n">
-        <v>1194.683768698139</v>
+        <v>2465.942913862885</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5176,28 +5176,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>559.1928012785273</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>409.0761618661916</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>261.1630682837985</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F13" t="n">
-        <v>114.2731207858881</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1865.381229508782</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.94664591678</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y14" t="n">
-        <v>2251.981069572904</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>359.2716929833838</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F16" t="n">
-        <v>359.2716929833838</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G16" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5458,28 +5458,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>882.8926947117852</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117852</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>1193.181703431126</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>807.3934508328821</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>396.4075460432745</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2253.028225580699</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1999.266440218791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1999.266440218791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1646.497784948677</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1273.032026687597</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>882.8926947117852</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5568,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5698,25 +5698,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>799.3633507333279</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>430.4008337929162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>430.4008337929162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>430.4008337929162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>766.9957389871895</v>
       </c>
       <c r="G20" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5777,25 +5777,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1949.568281034341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1576.102522773261</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y20" t="n">
-        <v>1185.96319079745</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5850,28 +5850,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>2540.369809567131</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W22" t="n">
-        <v>2250.95263953017</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>882.8926947117852</v>
+        <v>1783.124109094748</v>
       </c>
       <c r="C23" t="n">
-        <v>882.8926947117852</v>
+        <v>1414.161592154336</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1055.895893547586</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1055.895893547586</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2580.55162101258</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2580.55162101258</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2326.789835650672</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>1995.726948307101</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W23" t="n">
-        <v>1642.958293036987</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X23" t="n">
-        <v>1269.492534775907</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y23" t="n">
-        <v>1269.492534775907</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1995.909162857192</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6227,10 +6227,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2636.270788283222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2636.270788283222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2382.509002921313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2382.509002921313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2382.509002921313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>2382.509002921313</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>2382.509002921313</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6324,7 +6324,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
@@ -6409,19 +6409,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U28" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V28" t="n">
-        <v>246.1363086691491</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W28" t="n">
-        <v>246.1363086691491</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X28" t="n">
         <v>53.94298182036445</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1577.945354755379</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082163</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018223</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X29" t="n">
-        <v>2354.684526795312</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y29" t="n">
-        <v>1964.5451948195</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6516,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614627</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N30" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P30" t="n">
         <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6628,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>184.2708856551154</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>184.2708856551154</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>184.2708856551154</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1995.909162857192</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>1626.94664591678</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6698,19 +6698,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2636.270788283222</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2382.509002921313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2382.509002921313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2382.509002921313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>2382.509002921313</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>2382.509002921313</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>302.467694800751</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>302.467694800751</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>302.467694800751</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>302.467694800751</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036445</v>
@@ -6877,31 +6877,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S34" t="n">
-        <v>571.3497027553424</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T34" t="n">
-        <v>571.3497027553424</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U34" t="n">
-        <v>571.3497027553424</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V34" t="n">
-        <v>571.3497027553424</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9325327183818</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286579</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>892.8693763960225</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C35" t="n">
-        <v>892.8693763960225</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D35" t="n">
-        <v>534.603677789272</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="E35" t="n">
-        <v>534.603677789272</v>
+        <v>1139.958403443465</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>728.9724986538579</v>
       </c>
       <c r="G35" t="n">
         <v>534.603677789272</v>
@@ -6935,19 +6935,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6962,25 +6962,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982757</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y35" t="n">
-        <v>892.8693763960225</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7017,13 +7017,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7035,22 +7035,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2387.672435405261</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C37" t="n">
-        <v>2218.736252477354</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D37" t="n">
-        <v>2068.619613065019</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E37" t="n">
-        <v>2068.619613065019</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F37" t="n">
-        <v>2068.619613065019</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G37" t="n">
-        <v>2068.619613065019</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="H37" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018222</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y37" t="n">
-        <v>2569.320900235501</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1116.950579244872</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1116.950579244872</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>1116.950579244872</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>731.1623266466281</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F38" t="n">
-        <v>320.1764218570206</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G38" t="n">
-        <v>320.1764218570206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7202,22 +7202,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1893.689751284806</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1503.550419308994</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>391.878965009939</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C40" t="n">
-        <v>222.942782082032</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="D40" t="n">
-        <v>222.942782082032</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="E40" t="n">
-        <v>222.942782082032</v>
+        <v>2632.930119860552</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>2486.040172362642</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X40" t="n">
-        <v>612.6715441534691</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y40" t="n">
-        <v>391.878965009939</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1525.74665604171</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W41" t="n">
-        <v>2289.351746278601</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.885988017521</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y41" t="n">
-        <v>1525.74665604171</v>
+        <v>781.1711973675267</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7500,7 +7500,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7509,28 +7509,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7597,22 +7597,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551153</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W43" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1526.329725433337</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C44" t="n">
-        <v>1157.367208492925</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D44" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E44" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7649,10 +7649,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7673,25 +7673,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>2252.564138964531</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W44" t="n">
-        <v>1899.795483694417</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X44" t="n">
-        <v>1526.329725433337</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y44" t="n">
-        <v>1526.329725433337</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7701,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2118.55831063583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>2118.55831063583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>2118.55831063583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
         <v>2022.963088632153</v>
@@ -7837,19 +7837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U46" t="n">
-        <v>2407.975480672791</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V46" t="n">
-        <v>2407.975480672791</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W46" t="n">
-        <v>2118.55831063583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X46" t="n">
-        <v>2118.55831063583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>2118.55831063583</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,7 +8769,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,7 +9243,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,10 +9489,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O21" t="n">
-        <v>350.4438349360587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11148,10 +11148,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.9980253552811</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>221.3590373648545</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>142.3274976411263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22781,28 +22781,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,10 +22829,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -22841,13 +22841,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>124.9874213183507</v>
       </c>
       <c r="X5" t="n">
-        <v>220.4255911831637</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22948,22 +22948,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>111.9799311553899</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23002,13 +23002,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23024,19 +23024,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>151.1689131876463</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23072,10 +23072,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,7 +23084,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>209.7969049155198</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23179,28 +23179,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.43676775329496</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10.52067551358198</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.2867661184359</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23315,16 +23315,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,28 +23416,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>129.2226540149255</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>218.6771180774411</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>74.744251440114</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,25 +23777,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>5.662778958293188</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>102.1031945837915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23938,13 +23938,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787183</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23978,10 +23978,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>358.1055450532424</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>31.78471318999539</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24184,16 +24184,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>96.92615468724722</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>208.8197898846882</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,25 +24206,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>304.5809221617756</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24251,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.98421750338575</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24367,25 +24367,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24406,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>231.8063182229436</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>114.146193101321</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24619,10 +24619,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,28 +24643,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>35.43826180874038</v>
+        <v>56.93405031343804</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>268.6515076832991</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24844,22 +24844,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24892,10 +24892,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.56002855569136</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6572032248191</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>77.44122525026337</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,16 +25117,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>56.93405031343801</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25135,10 +25135,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,16 +25157,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>221.3590373648549</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25202,16 +25202,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>343.291952295823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,13 +25327,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>27.38738814000507</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25369,16 +25369,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>92.03474447720069</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,13 +25403,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2829833729289</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,28 +25549,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>111.4067897366017</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,19 +25628,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>110.7778401266442</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,19 +25673,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>178.2323524828008</v>
       </c>
     </row>
     <row r="42">
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>38.2851774626476</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25837,16 +25837,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>224.5805635544637</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>116.5072713207639</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>51.79469286292894</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,10 +26041,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26077,10 +26077,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="13">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="C2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="D2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="D2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="E2" t="n">
-        <v>274694.9795149696</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149697</v>
@@ -26329,31 +26329,31 @@
         <v>274694.9795149699</v>
       </c>
       <c r="H2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="I2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="J2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="K2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="L2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149696</v>
       </c>
-      <c r="I2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="O2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="K2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>274694.9795149696</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="K4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26494,7 +26494,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-436605.0455666934</v>
+        <v>-434076.7244032507</v>
       </c>
       <c r="C6" t="n">
-        <v>153362.8336478511</v>
+        <v>155891.1548112935</v>
       </c>
       <c r="D6" t="n">
-        <v>153362.8336478513</v>
+        <v>155891.1548112935</v>
       </c>
       <c r="E6" t="n">
-        <v>186990.4336478511</v>
+        <v>189518.7548112934</v>
       </c>
       <c r="F6" t="n">
-        <v>186990.4336478512</v>
+        <v>189518.7548112934</v>
       </c>
       <c r="G6" t="n">
-        <v>186990.4336478513</v>
+        <v>189518.7548112936</v>
       </c>
       <c r="H6" t="n">
-        <v>186990.433647851</v>
+        <v>189518.7548112935</v>
       </c>
       <c r="I6" t="n">
-        <v>186990.4336478513</v>
+        <v>189518.7548112934</v>
       </c>
       <c r="J6" t="n">
-        <v>10567.2144552582</v>
+        <v>13095.53561870053</v>
       </c>
       <c r="K6" t="n">
-        <v>186990.4336478511</v>
+        <v>189518.7548112936</v>
       </c>
       <c r="L6" t="n">
-        <v>186990.4336478511</v>
+        <v>189518.7548112934</v>
       </c>
       <c r="M6" t="n">
-        <v>186990.4336478513</v>
+        <v>189518.7548112933</v>
       </c>
       <c r="N6" t="n">
-        <v>186990.4336478513</v>
+        <v>189518.7548112934</v>
       </c>
       <c r="O6" t="n">
-        <v>186990.4336478512</v>
+        <v>189518.7548112935</v>
       </c>
       <c r="P6" t="n">
-        <v>186990.4336478512</v>
+        <v>189518.7548112933</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26814,7 +26814,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,7 +35735,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245897</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530451</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,10 +36209,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,10 +36683,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36923,7 +36923,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,13 +37081,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37160,7 +37160,7 @@
         <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,10 +37394,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37555,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37634,13 +37634,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,10 +37868,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38029,7 +38029,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
